--- a/Scripts/Results/Results/metrics_Relabeling_results.xlsx
+++ b/Scripts/Results/Results/metrics_Relabeling_results.xlsx
@@ -558,7 +558,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dfee062d5191c115aa9096641f1d7c18ffdd44ed0c3ac6f37439df7003ab28ad</t>
+          <t>74883c9adf428f76ddf53da0f1c3c64d64b4c54a343267cd4a75820fdf78ae2f</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9024482704154162</v>
+        <v>0.9080082135523614</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07430079490065981</v>
+        <v>0.08194768214086647</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8360607400855079</v>
+        <v>0.835765885301489</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01162288368639666</v>
+        <v>0.02127974188131047</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8449292452830188</v>
+        <v>0.8443396226415094</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001765883051921963</v>
+        <v>2.238482165143815e-05</v>
       </c>
       <c r="L3" t="n">
         <v>11223</v>
@@ -601,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="N3" t="n">
-        <v>2652.789854764938</v>
+        <v>2587.831536531448</v>
       </c>
     </row>
     <row r="4">
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2342.525502681732</v>
+        <v>2315.666812181473</v>
       </c>
     </row>
     <row r="5">
@@ -714,7 +714,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dcfb9d59cf943fc8724e3d55941ce37c92e22206cf11bcfa1193e9298413aa28</t>
+          <t>374c2b4f742ec5b1b2b74b3342bc7d42b939fa3fc6c8ba20bd51c62de31b1571</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -733,22 +733,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9581424735428842</v>
+        <v>0.9512557257937134</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05512598957870559</v>
+        <v>0.03056370849534771</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8279522335249889</v>
+        <v>0.8292790800530738</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04701088109365299</v>
+        <v>0.0472828486835165</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8377063679245284</v>
+        <v>0.8341686320754716</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001380612978953352</v>
+        <v>7.341973911814681e-05</v>
       </c>
       <c r="L6" t="n">
         <v>11223</v>
@@ -757,7 +757,7 @@
         <v>12</v>
       </c>
       <c r="N6" t="n">
-        <v>3546.682498216629</v>
+        <v>3583.84148144722</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3708.467952013016</v>
+        <v>3643.592126607895</v>
       </c>
     </row>
     <row r="8">
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>199.6935405731201</v>
+        <v>202.2005605697632</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>189</v>
       </c>
       <c r="N10" t="n">
-        <v>714.0017640590668</v>
+        <v>716.4432606697083</v>
       </c>
     </row>
     <row r="11">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>204.6210298538208</v>
+        <v>207.0547118186951</v>
       </c>
     </row>
     <row r="13">
@@ -1121,7 +1121,7 @@
         <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>623.4731731414795</v>
+        <v>627.1305425167084</v>
       </c>
     </row>
     <row r="14">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>f1944955eaf0ef62c0b2a21e17959dc62b843b451905959e5c142168f5a059e1</t>
+          <t>b2f359849744bda5e16b62f6188940f3178d00190f2ded924ed0e868160f3ccf</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1201,31 +1201,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8447636700648748</v>
+        <v>0.8410565338276181</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02098393803375334</v>
+        <v>0.01767893469330031</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6432432432432432</v>
+        <v>0.6518918918918919</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1202135606372075</v>
+        <v>0.1022627855441957</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6652267818574514</v>
+        <v>0.661987041036717</v>
       </c>
       <c r="K15" t="n">
-        <v>0.005840673850163958</v>
+        <v>0.005509831637616397</v>
       </c>
       <c r="L15" t="n">
         <v>3055</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.275250673294</v>
+        <v>1674.26643705368</v>
       </c>
     </row>
     <row r="16">
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1186.44855093956</v>
+        <v>1199.010909080505</v>
       </c>
     </row>
     <row r="17">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>fca8666827ae69362864e09ca625b751e36a88c22ce9fad930335c83f278b2d2</t>
+          <t>e7152604380e46f5aa215a9cea001ffb07d2b2bbacadd016300c8d0935b7de28</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1357,31 +1357,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.852873030583874</v>
+        <v>0.8674698795180723</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01358408665878341</v>
+        <v>0.01492458224650935</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.6572972972972972</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04706728738540217</v>
+        <v>0.06360705195462565</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6468682505399568</v>
+        <v>0.6555075593952484</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0008793290043290214</v>
+        <v>0.003201659451659455</v>
       </c>
       <c r="L18" t="n">
         <v>3055</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.007352352142</v>
+        <v>2079.936646223068</v>
       </c>
     </row>
     <row r="19">
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1314.617193460464</v>
+        <v>1336.322180986404</v>
       </c>
     </row>
     <row r="20">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>053fab4c5615e576a09d7bf5ed185ad67cbdbe3aaff8f95aa792e4816639da34</t>
+          <t>954e8324ddf6a4a85178c177b0842e472c8514995767110da7c632dbd2dcffb9</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1513,31 +1513,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9530012651703295</v>
+        <v>0.9397404057916686</v>
       </c>
       <c r="G21" t="n">
-        <v>0.006758372267692249</v>
+        <v>0.005223628884854518</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8941613820249289</v>
+        <v>0.9024710255849552</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1056399622521327</v>
+        <v>0.08174070253590099</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8893747267162221</v>
+        <v>0.8891560996939222</v>
       </c>
       <c r="K21" t="n">
-        <v>0.006271326012452141</v>
+        <v>0.007498373906090993</v>
       </c>
       <c r="L21" t="n">
         <v>3669</v>
       </c>
       <c r="M21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>2611.779624700546</v>
+        <v>2879.724896669388</v>
       </c>
     </row>
     <row r="22">
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1781.571915864944</v>
+        <v>1771.492316246033</v>
       </c>
     </row>
   </sheetData>
